--- a/Macro_Chartist/Chart_templates/Financial conditions & employment, US.xlsx
+++ b/Macro_Chartist/Chart_templates/Financial conditions & employment, US.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>Series_Ticker</t>
   </si>
@@ -97,22 +97,28 @@
     <t>Template</t>
   </si>
   <si>
-    <t>CNM2, ECONOMICS</t>
-  </si>
-  <si>
-    <t>QCNPAMUSDA</t>
-  </si>
-  <si>
-    <t>CNLIVRR, ECONOMICS</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
+    <t>NFCI</t>
+  </si>
+  <si>
+    <t>CCSA</t>
+  </si>
+  <si>
+    <t>ICSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticker indicates the data to pull  
+from the source. Is different at each source. Source 'tv 'requires
+ticker,exchange - e.g XAUUSD,OANDA 
+</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
   </si>
   <si>
     <t>f632119c4e0599a3229fec5a9ac83b1c</t>
   </si>
   <si>
-    <t>China M2 proxies?</t>
+    <t>Financial conditions &amp; employment, US</t>
   </si>
   <si>
     <t>yes</t>
@@ -121,10 +127,15 @@
     <t>no</t>
   </si>
   <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>tv</t>
+    <t>Financial conditions &amp; employment, US.xlsx</t>
+  </si>
+  <si>
+    <t>fred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose 
+source. Ticker must be valid 
+at source. </t>
   </si>
   <si>
     <t xml:space="preserve">Date must be YYYY-MM-DD format. </t>
@@ -154,7 +165,10 @@
     <t>Unaltered</t>
   </si>
   <si>
-    <t>Rolling sum</t>
+    <t>All except 'Unaltered' transform the
+data in some way. Take rate of change with differing periods or fit a
+ curve and plot the % deviation from
+ that trend etc.</t>
   </si>
   <si>
     <t>black</t>
@@ -163,49 +177,114 @@
     <t>blue</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>fuchsia</t>
+    <t>red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose color for 
+the trace on the
+chart. </t>
+  </si>
+  <si>
+    <t>NOTE: Worksheet protected, cells that you can't select are locked.</t>
   </si>
   <si>
     <t>Paste your FRED API key (make free account to get): https://fredaccount.stlouisfed.org/apikeys</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
     <t>linear</t>
   </si>
   <si>
-    <t>Put in whatever you want for the chart title, avoid '\"</t>
-  </si>
-  <si>
-    <t>M2 money supply China</t>
-  </si>
-  <si>
-    <t>Credit to private, non-financial sector, China</t>
-  </si>
-  <si>
-    <t>China stimmie via RRP</t>
-  </si>
-  <si>
-    <t>China stimmie via RRP, cumulative total</t>
-  </si>
-  <si>
-    <t>Trilliions of Chinese Yuan</t>
-  </si>
-  <si>
-    <t>Trillions of U.S $</t>
-  </si>
-  <si>
-    <t>Billions of Yuan</t>
-  </si>
-  <si>
-    <t>Trillions of Yuan</t>
+    <t>Y-axis scaling.</t>
+  </si>
+  <si>
+    <t>Put in whatever you want for the chart title, avoid characters: '\".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose previously saved chart template instead of using the parameters on this page. Dropdown list values are is in sheet "TemplateList". Saved templates are updated each python script run and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saved in the file: "TemplateList.xlsx" (in this same folder). To update the dropdown list at left you need to copy column A from that file into the same column on the "TemplateList" sheet in this excel file. </t>
+  </si>
+  <si>
+    <t>Chicago Fed National financial conditions Index</t>
+  </si>
+  <si>
+    <t>Continued unemployment claims, U.S</t>
+  </si>
+  <si>
+    <t>Initial unemployment claims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your name for that series to appear on the 
+legend. If the data is a multi-column dataframe, this
+will be ignored. </t>
+  </si>
+  <si>
+    <t>Index (a.u,  long-term mean = 0)</t>
+  </si>
+  <si>
+    <t>Millions of rekt cunts</t>
+  </si>
+  <si>
+    <t>Thousands of freshly rekt cunts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label for the Y-axis for that data. Leave blank and 
+it will deafult to "USD". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL GUIDANCE NOTES: 
+Yellow cells are dropdown menus. Grey cells enable free-form input (be warned that not all input will 
+be valid). White cells show notes to help the user. All other cells are locked, do not change values in these.
+Most cells do not require an input and can be left blank. Yes/no cells can be left blank which does the same
+as 'no'. Only 'yes' will activate the feature. 
+ - Generally you put values above to plot a chart you haven't done before, with "OUTPUT_CONFIG" set to 'yes'. Afterwards,  copy the template list from "TemplateList.xlsx" to the TemplateList sheet in this workbook. Later you can re-plot this chart with updated data using "load__template_instead" set to 'yes' and selecting the template to use. </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Optional
+Y max 
+limit for Y
+axis.</t>
+  </si>
+  <si>
+    <t>Optional
+Y min 
+limit for Y
+axis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Resample to
+daily". This will
+resample your 
+data to daily 
+frequency. </t>
+  </si>
+  <si>
+    <t>Put an integer
+in here to add
+a moving average 
+atop the trace
+using that
+integer period.</t>
+  </si>
+  <si>
+    <t>Integer here 
+to calculate that period 
+MA and plot that instead.</t>
+  </si>
+  <si>
+    <t>Linewidth of that
+trace on the chart.
+Blank will default
+to 1.5 pt.</t>
+  </si>
+  <si>
+    <t>The data will be divided
+by this value before plotting. Generally, put in '=10^x', where x is
+an integer, to reduce the number of zeros on your yaxis labels by x.</t>
   </si>
 </sst>
 </file>
@@ -563,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,31 +703,25 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>1000000000000</v>
+        <v>64</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -659,28 +732,31 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -691,221 +767,251 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
       </c>
       <c r="O4">
-        <v>1000000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>1000000000000</v>
-      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:8">
@@ -913,8 +1019,17 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
-      <c r="H34" t="s">
-        <v>63</v>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="H37" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
